--- a/ParkByeongHyeon/packages_CountVector_kmeans_clusters.xlsx
+++ b/ParkByeongHyeon/packages_CountVector_kmeans_clusters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>num</t>
   </si>
@@ -28,28 +28,40 @@
     <t>top_15_topics</t>
   </si>
   <si>
+    <t>['freeCodeCamp/freeCodeCamp', 'vuejs/vue', 'facebook/react', 'flutter/flutter', '30-seconds/30-seconds-of-code', 'justjavac/free-programming-books-zh_CN', 'nodejs/node', 'angular/angular', 'ant-design/ant-design', 'mrdoob/three.js', 'mui-org/material-ui', 'goldbergyoni/nodebestpractices', 'PanJiaChen/vue-element-admin', 'storybookjs/storybook', 'webpack/webpack', 'thedaviddias/Front-End-Checklist', 'practical-tutorials/project-based-learning', 'gatsbyjs/gatsby', 'ElemeFE/element', 'ionic-team/ionic-framework', 'enaqx/awesome-react', 'leonardomso/33-js-concepts', 'meteor/meteor', 'prettier/prettier', 'nestjs/nest', 'juliangarnier/anime', 'parcel-bundler/parcel', 'Dogfalo/materialize', 'nwjs/nw.js', 'TryGhost/Ghost', 'nuxt/nuxt.js', 'bailicangdu/vue2-elm', 'vercel/hyper', 'FreeCodeCampChina/freecodecamp.cn', 'pixijs/pixijs', 'dcloudio/uni-app', 'vuetifyjs/vuetify', 'yangshun/front-end-interview-handbook', 'RocketChat/Rocket.Chat', 'photonstorm/phaser', 'jondot/awesome-react-native', 'NervJS/taro', 'xitu/gold-miner', 'formium/formik', 'dkhamsing/open-source-ios-apps', 'brillout/awesome-react-components', 'react-boilerplate/react-boilerplate', 'microsoft/playwright', 'SheetJS/sheetjs', 'evanw/esbuild', 'vuejs/vuex', 'facebook/docusaurus', 'typeorm/typeorm', 'elsewhencode/project-guidelines', 'laurent22/joplin', 'Modernizr/Modernizr', 'naptha/tesseract.js', 'nylas/nylas-mail', 'webtorrent/webtorrent', 'transloadit/uppy', 'mobxjs/mobx', 'Advanced-Frontend/Daily-Interview-Question', 'sentsin/layui', 'iview/iview', 'SDWebImage/SDWebImage', 'denysdovhan/wtfjs', 'react-hook-form/react-hook-form', 'akveo/ngx-admin', 'bvaughn/react-virtualized', 'ianstormtaylor/slate', 'emberjs/ember.js', 'LeCoupa/awesome-cheatsheets', 'doczjs/docz', 'SeleniumHQ/selenium', 'mdbootstrap/mdb-ui-kit', 'react-native-elements/react-native-elements', 'MostlyAdequate/mostly-adequate-guide', 'markerikson/react-redux-links', 'kriasoft/react-starter-kit', 'ReactiveX/RxSwift', 'mattermost/mattermost-server', 'labstack/echo', 'chakra-ui/chakra-ui', 'NativeScript/NativeScript', 'paularmstrong/normalizr', 'lovell/sharp', 'react-navigation/react-navigation', 'ipfs/ipfs', 'localForage/localForage', 'quasarframework/quasar', 'necolas/react-native-web', 'goldfire/howler.js', 'vercel/swr', 'jhipster/generator-jhipster', 'jorgebucaran/hyperapp', 'verekia/js-stack-from-scratch', 'vuejs/vue-router', 'v8/v8', 'electron-react-boilerplate/electron-react-boilerplate', 'youzan/vant', 'palantir/blueprint', 'marmelab/react-admin', 'airyland/vux', 'InterviewMap/CS-Interview-Knowledge-Map', 'mojs/mojs', 'websockets/ws', 'yewstack/yew', 'angular/material', 'alibaba/ice', 'sudheerj/reactjs-interview-questions', 'jamiebuilds/react-loadable', 'pubkey/rxdb', 'dropzone/dropzone', 'iview/iview-admin']</t>
+  </si>
+  <si>
+    <t>['996icu/996.ICU', 'EbookFoundation/free-programming-books', 'kamranahmedse/developer-roadmap', 'sindresorhus/awesome', 'tensorflow/tensorflow', 'public-apis/public-apis', 'twbs/bootstrap', 'getify/You-Dont-Know-JS', 'CyC2018/CS-Notes', 'ohmyzsh/ohmyzsh', 'github/gitignore', 'microsoft/vscode', 'torvalds/linux', 'danistefanovic/build-your-own-x', 'airbnb/javascript', 'Snailclimb/JavaGuide', 'jackfrued/Python-100-Days', 'vinta/awesome-python', 'ytdl-org/youtube-dl', 'd3/d3', 'facebook/react-native', 'electron/electron', 'labuladong/fucking-algorithm', 'ossu/computer-science', 'jlevy/the-art-of-command-line', 'facebook/create-react-app', 'golang/go', 'axios/axios', 'kubernetes/kubernetes', 'denoland/deno', 'microsoft/terminal', 'microsoft/TypeScript', 'puppeteer/puppeteer', 'vercel/next.js', 'animate-css/animate.css', 'tensorflow/models', 'iluwatar/java-design-patterns', 'avelino/awesome-go', 'MisterBooo/LeetCodeAnimation', 'laravel/laravel', 'FortAwesome/Font-Awesome', 'nvbn/thefuck', 'awesome-selfhosted/awesome-selfhosted', 'vuejs/awesome-vue', 'moby/moby', 'gothinkster/realworld', 'microsoft/PowerToys', 'angular/angular.js', 'django/django', 'rust-lang/rust', 'tonsky/FiraCode', 'hakimel/reveal.js', 'apple/swift', 'doocs/advanced-java', 'spring-projects/spring-boot', 'bitcoin/bitcoin', 'reduxjs/redux', 'opencv/opencv', 'pallets/flask', 'elastic/elasticsearch', 'ryanmcdermott/clean-code-javascript', 'typicode/json-server', 'atom/atom', 'netdata/netdata', 'jquery/jquery', 'chartjs/Chart.js', 'expressjs/express', 'socketio/socket.io', 'xingshaocheng/architect-awesome', 'Genymobile/scrcpy', 'gohugoio/hugo', 'adam-p/markdown-here', 'shadowsocks/shadowsocks-windows', 'keras-team/keras', 'httpie/httpie', 'h5bp/html5-boilerplate', 'chrislgarry/Apollo-11', 'nvm-sh/nvm', 'gin-gonic/gin', 'josephmisiti/awesome-machine-learning', 'redis/redis', 'huggingface/transformers', 'pytorch/pytorch', 'lodash/lodash', 'protocolbuffers/protobuf', 'h5bp/Front-end-Developer-Interview-Questions', 'sveltejs/svelte', 'ansible/ansible', 'resume/resume.github.com', 'Semantic-Org/Semantic-UI', 'papers-we-love/papers-we-love', 'rails/rails', 'kelseyhightower/nocode', 'ripienaar/free-for-dev', 'fatedier/frp', 'cdr/code-server', 'trimstray/the-book-of-secret-knowledge', 'apache/echarts', 'scikit-learn/scikit-learn', 'neovim/neovim', 'tailwindlabs/tailwindcss', '521xueweihan/HelloGitHub', 'psf/requests', 'moment/moment', 'scutan90/DeepLearning-500-questions', 'Hack-with-Github/Awesome-Hacking', 'awesomedata/awesome-public-datasets', 'home-assistant/core', 'jaywcjlove/awesome-mac', 'necolas/normalize.css', 'ReactiveX/RxJava', 'mtdvio/every-programmer-should-know', 'spring-projects/spring-framework', 'florinpop17/app-ideas', 'jgthms/bulma', 'azl397985856/leetcode', 'remix-run/react-router', 'google/material-design-icons', 'grafana/grafana', 'jekyll/jekyll', 'google/guava', 'sindresorhus/awesome-nodejs', 'godotengine/godot', 'sdmg15/Best-websites-a-programmer-should-visit', 'tesseract-ocr/tesseract', 'NARKOZ/hacker-scripts', 'soimort/you-get', 'scrapy/scrapy', 'ageitgey/face_recognition', 'wasabeef/awesome-android-ui', 'aymericdamien/TensorFlow-Examples', 'minimaxir/big-list-of-naughty-strings', 'square/okhttp', 'serverless/serverless', 'apache/superset', 'yarnpkg/yarn', 'python/cpython', 'syncthing/syncthing', 'babel/babel', 'ColorlibHQ/AdminLTE', 'strapi/strapi', 'android/architecture-samples', 'git/git', 'iptv-org/iptv', 'junegunn/fzf', 'ziishaned/learn-regex', 'square/retrofit', 'JetBrains/kotlin', 'prometheus/prometheus', 'astaxie/build-web-application-with-golang', 'kon9chunkit/GitHub-Chinese-Top-Charts', 'deepfakes/faceswap', 'vsouza/awesome-ios', 'v2ray/v2ray-core', 'prakhar1989/awesome-courses', 'gogs/gogs', 'mermaid-js/mermaid', 'lydiahallie/javascript-questions', 'Solido/awesome-flutter', 'x64dbg/x64dbg', 'etcd-io/etcd', '3b1b/manim', 'k88hudson/git-flight-rules', 'karan/Projects', 'impress/impress.js', 'Alamofire/Alamofire', 'facebook/jest', 'iamkun/dayjs', 'JuliaLang/julia', 'apache/dubbo', 'mozilla/pdf.js', 'justjavac/awesome-wechat-weapp', 'tiangolo/fastapi', 'DefinitelyTyped/DefinitelyTyped', 'Unitech/pm2', 'algorithm-visualizer/algorithm-visualizer', 'traefik/traefik', 'nodejs/node-v0.x-archive', 'microsoft/Web-Dev-For-Beginners', 'styled-components/styled-components', 'alacritty/alacritty', 'caddyserver/caddy', 'MunGell/awesome-for-beginners', 'tldr-pages/tldr', 'chinese-poetry/chinese-poetry', 'discourse/discourse', 'localstack/localstack', 'PhilJay/MPAndroidChart', 'adobe/brackets', 'GitSquared/edex-ui', 'danielmiessler/SecLists', 'Marak/faker.js', 'fighting41love/funNLP', 'hexojs/hexo', 'fffaraz/awesome-cpp', 'AFNetworking/AFNetworking', 'slatedocs/slate', 'shadowsocks/shadowsocks', 'fastlane/fastlane', 'Avik-Jain/100-Days-Of-ML-Code', 'tiimgreen/github-cheat-sheet', 'alvarotrigo/fullPage.js', 'pi-hole/pi-hole', '0voice/interview_internal_reference', 'gulpjs/gulp', 'ethereum/go-ethereum', 'sahat/hackathon-starter', 'huginn/huginn', 'dypsilon/frontend-dev-bookmarks', 'bradtraversy/design-resources-for-developers', 'videojs/video.js', 'BVLC/caffe', 'google/material-design-lite', 'shadowsocks/shadowsocks-android', 'FiloSottile/mkcert', 'ocornut/imgui', 'grpc/grpc', 'airbnb/lottie-android', 'Leaflet/Leaflet', 'isocpp/CppCoreGuidelines', 'koajs/koa', 'bumptech/glide', 'exacity/deeplearningbook-chinese', 'kamranahmedse/design-patterns-for-humans', 'immutable-js/immutable-js', 'vitejs/vite', 'php/php-src', 'zenorocha/clipboard.js', 'blueimp/jQuery-File-Upload', 'apachecn/AiLearning', 'pandas-dev/pandas', 'alex/what-happens-when', 'XX-net/XX-Net', 'quilljs/quill', 'jakevdp/PythonDataScienceHandbook', 'apache/spark', 'Alvin9999/new-pac', 'obsproject/obs-studio', 'Trinea/android-open-project', 'ngosang/trackerslist', 'floodsung/Deep-Learning-Papers-Reading-Roadmap', 'anuraghazra/github-readme-stats', 'Kong/kong', 'wg/wrk', 'testerSunshine/12306', 'ant-design/ant-design-pro', 'open-guides/og-aws', 'swisskyrepo/PayloadsAllTheThings', 'preactjs/preact', 'ryanoasis/nerd-fonts', 'akullpp/awesome-java', 'CorentinJ/Real-Time-Voice-Cloning', 'Blankj/AndroidUtilCode', 'lerna/lerna', 'shadowsocks/ShadowsocksX-NG', 'commaai/openpilot', 'PowerShell/PowerShell', 'bilibili/ijkplayer', 'sharkdp/bat', 'minio/minio', 'faif/python-patterns', 'foundation/foundation-sites', 'Homebrew/brew', 'google-research/bert', 'getsentry/sentry', 'pingcap/tidb', 'hashicorp/terraform', 'joshbuchea/HEAD', 'rclone/rclone', 'GokuMohandas/MadeWithML', 'NationalSecurityAgency/ghidra', 'iperov/DeepFaceLab', 'willmcgugan/rich', 'lukehoban/es6features', 'google/styleguide', 'carbon-app/carbon', 'ariya/phantomjs', 'geekxh/hello-algorithm', 'nativefier/nativefier', 'nolimits4web/swiper', 'vuejs/vue-cli', 'zxing/zxing', 'certbot/certbot', 'kelseyhightower/kubernetes-the-hard-way', 'bayandin/awesome-awesomeness', 'istio/istio', 'iina/iina', 'typescript-cheatsheets/react', 'agalwood/Motrix', 'jashkenas/backbone', 'dylanaraps/pure-bash-bible', 'netty/netty', 'tastejs/todomvc', 'codepath/android_guides', 'wagoodman/dive', 'Homebrew/legacy-homebrew', 'eugenp/tutorials', 'AobingJava/JavaFamily', 'CSSEGISandData/COVID-19', 'caolan/async', 'satwikkansal/wtfpython', 'shengxinjing/programmer-job-blacklist', 'formulahendry/955.WLB', 'BurntSushi/ripgrep', 'skylot/jadx', 'alibaba/arthas', 'kenwheeler/slick', 'serhii-londar/open-source-mac-os-apps', 'fxsjy/jieba', 'aosabook/500lines', 'beego/beego', 'chubin/cheat.sh', 'unknwon/the-way-to-go_ZH_CN', 'mathiasbynens/dotfiles', 'date-fns/date-fns', 'sherlock-project/sherlock', 'square/leakcanary', 'freeCodeCamp/devdocs', 'nlohmann/json', 'crossoverJie/JCSprout', 'google/leveldb', 'golang-standards/project-layout', 'gorhill/uBlock', 'go-gitea/gitea', 'jashkenas/underscore', 'FFmpeg/FFmpeg', 'alibaba/p3c', 'fzaninotto/Faker', 'standard/standard', 'microsoft/monaco-editor', 'koalaman/shellcheck', 'metabase/metabase', 'Tencent/weui', 'ventoy/Ventoy', 'markedjs/marked', 'dotnet/aspnetcore', 'houshanren/hangzhou_house_knowledge', 'symfony/symfony', 'JakeWharton/butterknife', 'ziadoz/awesome-php', 'herrbischoff/awesome-macos-command-line', 'composer/composer', 'd2l-ai/d2l-zh', 'ReactiveX/rxjs', 'jgraph/drawio', 'sorrycc/awesome-javascript', 'apolloconfig/apollo', 'proxyee-down-org/proxyee-down', 'raywenderlich/swift-algorithm-club', 'IanLunn/Hover', 'ZuzooVn/machine-learning-for-software-engineers', 'cli/cli', 'amix/vimrc', 'vlang/v', 'request/request', 'nvie/gitflow', 'airbnb/lottie-web', 'streamich/react-use', 'openai/gym', 'go-gorm/gorm', 'postcss/postcss', 'select2/select2', 'gto76/python-cheatsheet', 'rapid7/metasploit-framework', 'github/fetch', 'sequelize/sequelize', 'rethinkdb/rethinkdb', 'atlassian/react-beautiful-dnd', 'laravel/framework', 'angular/angular-cli', 'vuejs/vue-next', 'mastodon/mastodon', 'vim/vim', 'VincentGarreau/particles.js', 'facebookresearch/Detectron', 'mitmproxy/mitmproxy', 'danielgindi/Charts', 'junegunn/vim-plug', 'pyenv/pyenv', 'alibaba/druid', 'niklasvh/html2canvas', 'geekcompany/ResumeSample', 'cheeriojs/cheerio', 'johnpapa/angular-styleguide', 'lib-pku/libpku', 'tabler/tabler', 'mqyqingfeng/Blog', 'aria2/aria2', 'typicode/husky', 'Developer-Y/cs-video-courses', 'GitbookIO/gitbook', 'hasura/graphql-engine', 'drone/drone', 'alibaba/fastjson', 'geekcomputers/Python', 'google/googletest', 'hankcs/HanLP', 'greenrobot/EventBus', 'CamDavidsonPilon/Probabilistic-Programming-and-Bayesian-Methods-for-Hackers', '0xAX/linux-insides', 'realpython/python-guide', 'ajaxorg/ace', 'acmesh-official/acme.sh', 'jgm/pandoc', 'codemirror/CodeMirror', 'goabstract/Awesome-Design-Tools', 'GoogleChrome/lighthouse', 'ageron/handson-ml', 'docker/compose', 'CodeHubApp/CodeHub', 'rstacruz/nprogress', 'JedWatson/react-select', 'ycm-core/YouCompleteMe', 'terryum/awesome-deep-learning-papers', 'Automattic/mongoose', 'poteto/hiring-without-whiteboards', 'SortableJS/Sortable', 'spf13/cobra', 'apache/airflow', 'remy/nodemon', 'scwang90/SmartRefreshLayout', 'facebookresearch/fastText', 'jobbole/awesome-python-cn', 'cmderdev/cmder', 'excalidraw/excalidraw', 'fengdu78/Coursera-ML-AndrewNg-Notes', 'alibaba/flutter-go', 'hashicorp/consul', 'MrRio/jsPDF', 'gitlabhq/gitlabhq', 'microsoft/calculator', 'hammerjs/hammer.js', 'hashicorp/vagrant', 'VundleVim/Vundle.vim', 'StreisandEffect/streisand', 'tannerlinsley/react-query', 'google/zx', 'ggreer/the_silver_searcher', '2dust/v2rayN', 'tmux/tmux', 'odoo/odoo', 'YMFE/yapi', 'QSCTech/zju-icicles', 'psf/black', 'lenve/vhr', 'pypa/pipenv', 'CymChad/BaseRecyclerViewAdapterHelper', 'pcottle/learnGitBranching', 'bannedbook/fanqiang', 'powerline/fonts', 'harvesthq/chosen', 'tauri-apps/tauri', 'alebcay/awesome-shell', 'angular/components', 'dbeaver/dbeaver', 'influxdata/influxdb', 'cockroachdb/cockroach', 'balderdashy/sails', 'airbnb/lottie-ios', 'OAI/OpenAPI-Specification', 'Netflix/Hystrix', 'CMU-Perceptual-Computing-Lab/openpose', 'sindresorhus/awesome-electron', 'nagadomi/waifu2x', 'pure-css/pure', 'heartcombo/devise', 'dokku/dokku', 'encode/django-rest-framework', 'redux-saga/redux-saga', 'kubernetes/minikube', 't4t5/sweetalert', 'curl/curl', 'fouber/blog', 'rust-unofficial/awesome-rust', 'hashicorp/vault', 'yunjey/pytorch-tutorial', 'syl20bnr/spacemacs', 'littlecodersh/ItChat', 'Polymer/polymer', 'cfenollosa/os-tutorial', 'donnemartin/data-science-ipython-notebooks', 'mbeaudru/modern-js-cheatsheet', 'dmlc/xgboost', 'hollischuang/toBeTopJavaer', 'ovity/octotree', 'kahun/awesome-sysadmin', 'Tencent/wepy', 'qiurunze123/miaosha', 'trailofbits/algo', 'fastai/fastai', 'pjreddie/darknet', 'facebook/flow', 'reduxjs/react-redux', 'explosion/spaCy', 'dimsemenov/PhotoSwipe', 'jgraph/drawio-desktop', 'balena-io/etcher', 'Binaryify/NeteaseCloudMusicApi', 'go-kit/kit', 'github/hub', 'kataras/iris', 'tj/commander.js', 'ramda/ramda', 'immerjs/immer', 'matteocrippa/awesome-swift', 'emscripten-core/emscripten', 'signalapp/Signal-Android', 'guzzle/guzzle', 'jesseduffield/lazygit', 'alibaba/easyexcel', 'sqlmapproject/sqlmap', 'ccxt/ccxt', 'byoungd/English-level-up-tips-for-Chinese', 'lukasz-madon/awesome-remote-job', 'vuejs/devtools', 'SwiftyJSON/SwiftyJSON', 'android/architecture-components-samples', 'bevacqua/dragula', 'facebook/draft-js', 'google/iosched', 'inconshreveable/ngrok', 'seata/seata', 'jamiebuilds/the-super-tiny-compiler', 'firstcontributions/first-contributions', 'googlehosts/hosts', 'facebook/rocksdb', 'swagger-api/swagger-ui', 'Wox-launcher/Wox', 'vapor/vapor', 'feathericons/feather', 'usablica/intro.js', 'rollup/rollup', 'matterport/Mask_RCNN', 'romkatv/powerlevel10k', 'alibaba/canal', 'fastify/fastify', 'topjohnwu/Magisk', 'sampotts/plyr', 'mongodb/mongo', 'dromara/hutool', 'pugjs/pug', 'Meituan-Dianping/mpvue', 'openfaas/faas', 'HeroTransitions/Hero', 'ColorlibHQ/gentelella', 'mbadolato/iTerm2-Color-Schemes', 'SwiftGGTeam/the-swift-programming-language-in-chinese', 'wsargent/docker-cheat-sheet', 'kilimchoi/engineering-blogs', 'helm/helm', 'nsqio/nsq', 'stedolan/jq', 'komeiji-satori/Dress', 'eriklindernoren/ML-From-Scratch', 'bilibili/flv.js', 'tornadoweb/tornado', 'servo/servo', 'chenglou/react-motion', 'conwnet/github1s', 'julycoding/The-Art-Of-Programming-By-July', 'google/python-fire', 'google/gson', 'jlmakes/scrollreveal', 'ReactiveCocoa/ReactiveCocoa', 'git-tips/tips', 'nefe/You-Dont-Need-jQuery', 'react-bootstrap/react-bootstrap', 'DesignPatternsPHP/DesignPatternsPHP', 'beurtschipper/Depix', 'FallibleInc/security-guide-for-developers', 'facebookarchive/pop', 'apache/kafka', 'futurice/android-best-practices', 'BradLarson/GPUImage', 'postcss/autoprefixer', 'petkaantonov/bluebird', 'facebook/folly', 'keon/algorithms', 'halo-dev/halo', 'fabricjs/fabric.js', 'Reactive-Extensions/RxJS', 'apache/incubator-mxnet', 'wangzheng0822/algo', 'ruanyf/es6tutorial', 'SamyPesse/How-to-Make-a-Computer-Operating-System', 'Fndroid/clash_for_windows_pkg', 'ReactiveX/RxAndroid', 'google-research/google-research', 'railsware/upterm', 'getredash/redash', 'JohnCoates/Aerial', 'alibaba/nacos', 'tipsy/profile-summary-for-github', 'tqdm/tqdm', 'xuxueli/xxl-job', 'vuejs/vuepress', 'marktext/marktext', 'viatsko/awesome-vscode', 'yeasy/docker_practice', 'Eugeny/tabby', 'datasciencemasters/go', 'jaredhanson/passport', 'ApolloAuto/apollo', 'snowpackjs/snowpack', 'nicolargo/glances', 'eslint/eslint', 'AllThingsSmitty/css-protips', 'elixir-lang/elixir', 'Seldaek/monolog', 'sebastianruder/NLP-progress', 'Dreamacro/clash', 'ClickHouse/ClickHouse', 'segmentio/nightmare', 'dnSpy/dnSpy', 'afollestad/material-dialogs', 'felixrieseberg/windows95', 'highlightjs/highlight.js', 'uglide/RedisDesktopManager', 'parse-community/parse-server', 'libgdx/libgdx', 'onevcat/Kingfisher', 'sharkdp/fd', 'MustangYM/WeChatExtension-ForMac', 'xi-editor/xi-editor', 'microsoft/ML-For-Beginners', 'zhaoolee/ChromeAppHeroes', 'vercel/pkg', 'rwaldron/idiomatic.js', 'StevenBlack/hosts', 'sirupsen/logrus', 'dotnet-architecture/eShopOnContainers', 'ftlabs/fastclick', 'judasn/IntelliJ-IDEA-Tutorial', 'gfwlist/gfwlist', 'starship/starship', 'iamadamdev/bypass-paywalls-chrome', 'davideuler/architecture.of.internet-product', 'Prinzhorn/skrollr', 'docsifyjs/docsify', 'google/web-starter-kit', 'Homebrew/homebrew-cask', 'zsh-users/zsh-autosuggestions', 'js-cookie/js-cookie', 'tobiasahlin/SpinKit', 'rust-lang/rustlings', 'notable/notable', 'benweet/stackedit', 'Popmotion/popmotion', 'ruby/ruby', 'homebridge/homebridge', 'TeamStuQ/skill-map', 'dhg/Skeleton', 'ehang-io/nps', 'drduh/macOS-Security-and-Privacy-Guide', 'alpinejs/alpine', 'supabase/supabase', 'coder2gwy/coder2gwy', 'viraptor/reverse-interview', 'OWASP/CheatSheetSeries', 'trekhleb/homemade-machine-learning', 'jesseduffield/lazydocker', 'Awesome-HarmonyOS/HarmonyOS', 'google/ExoPlayer', 'dwmkerr/hacker-laws', 'tsenart/vegeta', 'ruanyf/jstraining', 'osquery/osquery', 'leereilly/games', 'validatorjs/validator.js', 'numpy/numpy', 'nikitavoloboev/my-mac-os', 'reduxjs/reselect', 'bcit-ci/CodeIgniter', 'square/picasso', 'meilisearch/MeiliSearch', 'libuv/libuv', 'mozilla/DeepSpeech', 'ruanyf/weekly', 'jcjohnson/neural-style', 'datawhalechina/pumpkin-book', 'SnapKit/Masonry', 'graphql/graphql-js', 'popperjs/popper-core', 'facebookresearch/detectron2', 'didi/DoraemonKit', 'Baseflow/PhotoView', 'dotnet/corefx', 'envoyproxy/envoy', 'celery/celery', 'sebastianbergmann/phpunit', 'PKUanonym/REKCARC-TSC-UHT', 'SnapKit/SnapKit', 'jenkinsci/jenkins', 'DrKLO/Telegram', 'microsoft/cascadia-code', 'michalsnik/aos', 'k3s-io/k3s', 'winstonjs/winston', 'coolsnowwolf/lede', 'alibaba/weex', 'apache/skywalking', 'nostalgic-css/NES.css', 'rancher/rancher', 'ChristosChristofidis/awesome-deep-learning', 'Kong/insomnia', 'zyedidia/micro', 'wenyan-lang/wenyan', 'sideway/joi', 'eligrey/FileSaver.js', 'PostgREST/postgrest', 'n8n-io/n8n', 'microsoft/api-guidelines', 'adobe-fonts/source-code-pro', 'wekan/wekan', 'BoostIO/BoostNote-Legacy', 'nektos/act', 'deezer/spleeter', 'forem/forem', 'ryanhanwu/How-To-Ask-Questions-The-Smart-Way', 'google/eng-practices', 'redisson/redisson', 'fish-shell/fish-shell', 'eggjs/egg', 'npm/npm', 'n0shake/Public-APIs', 'ray-project/ray', 'bazelbuild/bazel', 'alibaba/Sentinel', 'neoclide/coc.nvim', 'remoteintech/remote-jobs', 'DIYgod/RSSHub', 'qianguyihao/Web', 'statelyai/xstate', 'nocodb/nocodb', 'bitcoinbook/bitcoinbook', 'Micropoor/Micro8', 'phoenixframework/phoenix', 'SpaceVim/SpaceVim', 'facebook/flux', 'tmrts/go-patterns', 'coreybutler/nvm-windows', 'Pierian-Data/Complete-Python-3-Bootcamp', 'FelisCatus/SwitchyOmega', 'academic/awesome-datascience', 'microsoft/CNTK', 'nuysoft/Mock', 'apache/flink', 'uikit/uikit', 'dennybritz/reinforcement-learning', 'julianshapiro/velocity', 'locustio/locust', 'PHPMailer/PHPMailer', 'facebook/hhvm', 'chalk/chalk', 'ShareX/ShareX', '1c7/chinese-independent-developer', 'swoole/swoole-src', 'ageron/handson-ml2', 'HelloZeroNet/ZeroNet', 'google/flexbox-layout', 'recharts/recharts', 'magenta/magenta', 'zhiwehu/Python-programming-exercises', 'Awesome-Windows/Awesome', 'go-delve/delve', 'pytorch/examples', 'nosir/cleave.js', 'prisma/prisma1', 'nextcloud/server', 'nostra13/Android-Universal-Image-Loader', 'mxgmn/WaveFunctionCollapse', 'norvig/pytudes', 'jumpserver/jumpserver', 'defunkt/jquery-pjax', 'kelthuzadx/hosts', 'vadimdemedes/ink', 'google/flatbuffers', 'jitsi/jitsi-meet', 'crystal-lang/crystal', 'JacksonTian/fks', 'asim/go-micro', 'apollographql/apollo-client', 'spf13/viper', 'mysqljs/mysql', 'jaywcjlove/linux-command', 'telegramdesktop/tdesktop', 'facebook/fresco', 'less/less.js', 'CarGuo/GSYVideoPlayer', 'svg/svgo', 'reactnativecn/react-native-guide', 'dgraph-io/dgraph', 'MLEveryday/100-Days-Of-ML-Code', 'reduxjs/redux-thunk', 'nothings/stb', 'LingCoder/OnJava8', 'wesbos/JavaScript30', 'dracula/dracula-theme', 'urfave/cli', 'elastic/kibana', 'philc/vimium', 'adam-golab/react-developer-roadmap', 'PaddlePaddle/Paddle', 'jtoy/awesome-tensorflow', 'openssl/openssl', 'ElemeFE/mint-ui', 'framework7io/framework7', 'react-dnd/react-dnd', 'basecamp/trix', 'open-mmlab/mmdetection', 'luong-komorebi/Awesome-Linux-Software', 'hwdsl2/setup-ipsec-vpn', 'codex-team/editor.js', 'python-telegram-bot/python-telegram-bot', 'elunez/eladmin', 'linlinjava/litemall', 'twitter/typeahead.js', 'jsdom/jsdom', 'alsotang/node-lessons', 'python-poetry/poetry', 'yuzu-emu/yuzu', 'photoprism/photoprism', 'typicode/lowdb', 'ibraheemdev/modern-unix', 'kdeldycke/awesome-falsehood', 'rome/tools', 'lutzroeder/netron', 'dotnet/core', 'mybatis/mybatis-3', 'handlebars-lang/handlebars.js', 'vnpy/vnpy', 'sindresorhus/quick-look-plugins', 'nickbutcher/plaid', 'facert/awesome-spider', 'prisma/prisma', 'arendst/Tasmota', 'firecracker-microvm/firecracker', 'microsoft/MS-DOS', 'processing/p5.js', 'PaddlePaddle/PaddleOCR', 'Tencent/tinker', 'statsd/statsd', 'diem/diem', 'qishibo/AnotherRedisDesktopManager', 'hubotio/hubot', 'Kotlin/anko', 'taosdata/TDengine', 'jashkenas/coffeescript', 'valyala/fasthttp', 'shieldfy/API-Security-Checklist', 'SortableJS/Vue.Draggable', 'facebook/relay', 'jdg/MBProgressHUD', 'mpv-player/mpv', 'dianping/cat', 'oracle/graal', 'preservim/nerdtree']</t>
+  </si>
+  <si>
+    <t>['veggiemonk/awesome-docker', 'portainer/portainer']</t>
+  </si>
+  <si>
     <t>['jwasham/coding-interview-university', 'donnemartin/system-design-primer', 'trekhleb/javascript-algorithms', 'TheAlgorithms/Python', 'yangshun/tech-interview-handbook', 'kdn251/interviews', 'DopplerHQ/awesome-interview-questions', 'TheAlgorithms/Java', 'binhnguyennus/awesome-scalability', 'donnemartin/interactive-coding-challenges', 'huihut/interview', 'halfrost/LeetCode-Go', 'haizlin/fe-interview']</t>
   </si>
   <si>
-    <t>['996icu/996.ICU', 'EbookFoundation/free-programming-books', 'kamranahmedse/developer-roadmap', 'sindresorhus/awesome', 'tensorflow/tensorflow', 'public-apis/public-apis', 'CyC2018/CS-Notes', 'ohmyzsh/ohmyzsh', 'github/gitignore', 'microsoft/vscode', 'torvalds/linux', 'danistefanovic/build-your-own-x', 'Snailclimb/JavaGuide', 'jackfrued/Python-100-Days', 'vinta/awesome-python', 'ytdl-org/youtube-dl', 'd3/d3', 'facebook/react-native', 'labuladong/fucking-algorithm', 'ossu/computer-science', 'jlevy/the-art-of-command-line', 'facebook/create-react-app', 'golang/go', 'kubernetes/kubernetes', 'microsoft/terminal', 'puppeteer/puppeteer', 'animate-css/animate.css', 'tensorflow/models', 'iluwatar/java-design-patterns', 'avelino/awesome-go', 'MisterBooo/LeetCodeAnimation', 'laravel/laravel', 'FortAwesome/Font-Awesome', 'nvbn/thefuck', 'awesome-selfhosted/awesome-selfhosted', 'vuejs/awesome-vue', 'moby/moby', 'gothinkster/realworld', 'microsoft/PowerToys', 'angular/angular.js', 'django/django', 'rust-lang/rust', 'tonsky/FiraCode', 'hakimel/reveal.js', 'apple/swift', 'doocs/advanced-java', 'spring-projects/spring-boot', 'bitcoin/bitcoin', 'reduxjs/redux', 'opencv/opencv', 'pallets/flask', 'elastic/elasticsearch', 'ryanmcdermott/clean-code-javascript', 'typicode/json-server', 'atom/atom', 'netdata/netdata', 'jquery/jquery', 'socketio/socket.io', 'xingshaocheng/architect-awesome', 'Genymobile/scrcpy', 'gohugoio/hugo', 'adam-p/markdown-here', 'shadowsocks/shadowsocks-windows', 'keras-team/keras', 'macrozheng/mall', 'httpie/httpie', 'chrislgarry/Apollo-11', 'nvm-sh/nvm', 'gin-gonic/gin', 'josephmisiti/awesome-machine-learning', 'redis/redis', 'huggingface/transformers', 'pytorch/pytorch', 'lodash/lodash', 'protocolbuffers/protobuf', 'sveltejs/svelte', 'ansible/ansible', 'resume/resume.github.com', 'Semantic-Org/Semantic-UI', 'papers-we-love/papers-we-love', 'rails/rails', 'kelseyhightower/nocode', 'ripienaar/free-for-dev', 'fatedier/frp', 'cdr/code-server', 'trimstray/the-book-of-secret-knowledge', 'apache/echarts', 'scikit-learn/scikit-learn', 'neovim/neovim', 'tailwindlabs/tailwindcss', '521xueweihan/HelloGitHub', 'psf/requests', 'moment/moment', 'scutan90/DeepLearning-500-questions', 'Hack-with-Github/Awesome-Hacking', 'awesomedata/awesome-public-datasets', 'home-assistant/core', 'jaywcjlove/awesome-mac', 'necolas/normalize.css', 'ReactiveX/RxJava', 'mtdvio/every-programmer-should-know', 'spring-projects/spring-framework', 'florinpop17/app-ideas', 'jgthms/bulma', 'azl397985856/leetcode', 'remix-run/react-router', 'google/material-design-icons', 'grafana/grafana', 'jekyll/jekyll', 'google/guava', 'godotengine/godot', 'sdmg15/Best-websites-a-programmer-should-visit', 'tesseract-ocr/tesseract', 'NARKOZ/hacker-scripts', 'soimort/you-get', 'scrapy/scrapy', 'ageitgey/face_recognition', 'wasabeef/awesome-android-ui', 'aymericdamien/TensorFlow-Examples', 'minimaxir/big-list-of-naughty-strings', 'square/okhttp', 'serverless/serverless', 'yarnpkg/yarn', 'python/cpython', 'syncthing/syncthing', 'ColorlibHQ/AdminLTE', 'android/architecture-samples', 'git/git', 'iptv-org/iptv', 'junegunn/fzf', 'ziishaned/learn-regex', 'square/retrofit', 'JetBrains/kotlin', 'prometheus/prometheus', 'astaxie/build-web-application-with-golang', 'kon9chunkit/GitHub-Chinese-Top-Charts', 'deepfakes/faceswap', 'vsouza/awesome-ios', 'v2ray/v2ray-core', 'prakhar1989/awesome-courses', 'gogs/gogs', 'mermaid-js/mermaid', 'lydiahallie/javascript-questions', 'Solido/awesome-flutter', 'x64dbg/x64dbg', 'etcd-io/etcd', '3b1b/manim', 'k88hudson/git-flight-rules', 'karan/Projects', 'impress/impress.js', 'Alamofire/Alamofire', 'iamkun/dayjs', 'JuliaLang/julia', 'apache/dubbo', 'mozilla/pdf.js', 'justjavac/awesome-wechat-weapp', 'tiangolo/fastapi', 'DefinitelyTyped/DefinitelyTyped', 'Unitech/pm2', 'algorithm-visualizer/algorithm-visualizer', 'traefik/traefik', 'nodejs/node-v0.x-archive', 'styled-components/styled-components', 'alacritty/alacritty', 'caddyserver/caddy', 'MunGell/awesome-for-beginners', 'tldr-pages/tldr', 'chinese-poetry/chinese-poetry', 'discourse/discourse', 'localstack/localstack', 'PhilJay/MPAndroidChart', 'adobe/brackets', 'GitSquared/edex-ui', 'danielmiessler/SecLists', 'Marak/faker.js', 'fighting41love/funNLP', 'fffaraz/awesome-cpp', 'AFNetworking/AFNetworking', 'slatedocs/slate', 'shadowsocks/shadowsocks', 'fastlane/fastlane', 'Avik-Jain/100-Days-Of-ML-Code', 'tiimgreen/github-cheat-sheet', 'alvarotrigo/fullPage.js', 'pi-hole/pi-hole', '0voice/interview_internal_reference', 'gulpjs/gulp', 'ethereum/go-ethereum', 'sahat/hackathon-starter', 'huginn/huginn', 'dypsilon/frontend-dev-bookmarks', 'bradtraversy/design-resources-for-developers', 'BVLC/caffe', 'google/material-design-lite', 'shadowsocks/shadowsocks-android', 'FiloSottile/mkcert', 'ocornut/imgui', 'grpc/grpc', 'airbnb/lottie-android', 'Leaflet/Leaflet', 'isocpp/CppCoreGuidelines', 'koajs/koa', 'bumptech/glide', 'exacity/deeplearningbook-chinese', 'kamranahmedse/design-patterns-for-humans', 'immutable-js/immutable-js', 'vitejs/vite', 'php/php-src', 'zenorocha/clipboard.js', 'blueimp/jQuery-File-Upload', 'apachecn/AiLearning', 'pandas-dev/pandas', 'alex/what-happens-when', 'XX-net/XX-Net', 'quilljs/quill', 'jakevdp/PythonDataScienceHandbook', 'apache/spark', 'Alvin9999/new-pac', 'obsproject/obs-studio', 'Trinea/android-open-project', 'ngosang/trackerslist', 'floodsung/Deep-Learning-Papers-Reading-Roadmap', 'anuraghazra/github-readme-stats', 'Kong/kong', 'wg/wrk', 'testerSunshine/12306', 'ant-design/ant-design-pro', 'open-guides/og-aws', 'swisskyrepo/PayloadsAllTheThings', 'preactjs/preact', 'ryanoasis/nerd-fonts', 'akullpp/awesome-java', 'CorentinJ/Real-Time-Voice-Cloning', 'Blankj/AndroidUtilCode', 'lerna/lerna', 'shadowsocks/ShadowsocksX-NG', 'commaai/openpilot', 'PowerShell/PowerShell', 'bilibili/ijkplayer', 'sharkdp/bat', 'minio/minio', 'faif/python-patterns', 'foundation/foundation-sites', 'Homebrew/brew', 'google-research/bert', 'getsentry/sentry', 'hashicorp/terraform', 'joshbuchea/HEAD', 'rclone/rclone', 'GokuMohandas/MadeWithML', 'NationalSecurityAgency/ghidra', 'iperov/DeepFaceLab', 'willmcgugan/rich', 'lukehoban/es6features', 'google/styleguide', 'carbon-app/carbon', 'ariya/phantomjs', 'geekxh/hello-algorithm', 'nativefier/nativefier', 'nolimits4web/swiper', 'vuejs/vue-cli', 'zxing/zxing', 'certbot/certbot', 'kelseyhightower/kubernetes-the-hard-way', 'bayandin/awesome-awesomeness', 'istio/istio', 'iina/iina', 'typescript-cheatsheets/react', 'agalwood/Motrix', 'jashkenas/backbone', 'dylanaraps/pure-bash-bible', 'netty/netty', 'tastejs/todomvc', 'codepath/android_guides', 'wagoodman/dive', 'Homebrew/legacy-homebrew', 'eugenp/tutorials', 'AobingJava/JavaFamily', 'CSSEGISandData/COVID-19', 'caolan/async', 'satwikkansal/wtfpython', 'shengxinjing/programmer-job-blacklist', 'formulahendry/955.WLB', 'BurntSushi/ripgrep', 'skylot/jadx', 'alibaba/arthas', 'kenwheeler/slick', 'serhii-londar/open-source-mac-os-apps', 'fxsjy/jieba', 'aosabook/500lines', 'beego/beego', 'chubin/cheat.sh', 'unknwon/the-way-to-go_ZH_CN', 'mathiasbynens/dotfiles', 'sherlock-project/sherlock', 'square/leakcanary', 'freeCodeCamp/devdocs', 'nlohmann/json', 'crossoverJie/JCSprout', 'google/leveldb', 'golang-standards/project-layout', 'gorhill/uBlock', 'go-gitea/gitea', 'ityouknow/spring-boot-examples', 'jashkenas/underscore', 'FFmpeg/FFmpeg', 'alibaba/p3c', 'fzaninotto/Faker', 'microsoft/monaco-editor', 'koalaman/shellcheck', 'Tencent/weui', 'ventoy/Ventoy', 'markedjs/marked', 'dotnet/aspnetcore', 'houshanren/hangzhou_house_knowledge', 'symfony/symfony', 'JakeWharton/butterknife', 'ziadoz/awesome-php', 'herrbischoff/awesome-macos-command-line', 'composer/composer', 'd2l-ai/d2l-zh', 'ReactiveX/rxjs', 'jgraph/drawio', 'sorrycc/awesome-javascript', 'apolloconfig/apollo', 'proxyee-down-org/proxyee-down', 'raywenderlich/swift-algorithm-club', 'IanLunn/Hover', 'ZuzooVn/machine-learning-for-software-engineers', 'cli/cli', 'amix/vimrc', 'vlang/v', 'request/request', 'nvie/gitflow', 'airbnb/lottie-web', 'streamich/react-use', 'openai/gym', 'go-gorm/gorm', 'postcss/postcss', 'select2/select2', 'gto76/python-cheatsheet', 'rapid7/metasploit-framework', 'github/fetch', 'rethinkdb/rethinkdb', 'jeecgboot/jeecg-boot', 'atlassian/react-beautiful-dnd', 'laravel/framework', 'angular/angular-cli', 'vuejs/vue-next', 'mastodon/mastodon', 'vim/vim', 'VincentGarreau/particles.js', 'facebookresearch/Detectron', 'mitmproxy/mitmproxy', 'danielgindi/Charts', 'junegunn/vim-plug', 'pyenv/pyenv', 'alibaba/druid', 'niklasvh/html2canvas', 'geekcompany/ResumeSample', 'cheeriojs/cheerio', 'johnpapa/angular-styleguide', 'lib-pku/libpku', 'tabler/tabler', 'mqyqingfeng/Blog', 'aria2/aria2', 'typicode/husky', 'Developer-Y/cs-video-courses', 'GitbookIO/gitbook', 'hasura/graphql-engine', 'drone/drone', 'alibaba/fastjson', 'geekcomputers/Python', 'google/googletest', 'hankcs/HanLP', 'greenrobot/EventBus', 'CamDavidsonPilon/Probabilistic-Programming-and-Bayesian-Methods-for-Hackers', '0xAX/linux-insides', 'realpython/python-guide', 'ajaxorg/ace', 'acmesh-official/acme.sh', 'jgm/pandoc', 'codemirror/CodeMirror', 'goabstract/Awesome-Design-Tools', 'GoogleChrome/lighthouse', 'ageron/handson-ml', 'docker/compose', 'CodeHubApp/CodeHub', 'rstacruz/nprogress', 'JedWatson/react-select', 'xkcoding/spring-boot-demo', 'ycm-core/YouCompleteMe', 'terryum/awesome-deep-learning-papers', 'Automattic/mongoose', 'poteto/hiring-without-whiteboards', 'SortableJS/Sortable', 'spf13/cobra', 'apache/airflow', 'remy/nodemon', 'scwang90/SmartRefreshLayout', 'facebookresearch/fastText', 'jobbole/awesome-python-cn', 'cmderdev/cmder', 'excalidraw/excalidraw', 'fengdu78/Coursera-ML-AndrewNg-Notes', 'alibaba/flutter-go', 'hashicorp/consul', 'MrRio/jsPDF', 'gitlabhq/gitlabhq', 'microsoft/calculator', 'hammerjs/hammer.js', 'hashicorp/vagrant', 'VundleVim/Vundle.vim', 'StreisandEffect/streisand', 'tannerlinsley/react-query', 'ggreer/the_silver_searcher', '2dust/v2rayN', 'tmux/tmux', 'odoo/odoo', 'YMFE/yapi', 'QSCTech/zju-icicles', 'psf/black', 'lenve/vhr', 'pypa/pipenv', 'CymChad/BaseRecyclerViewAdapterHelper', 'pcottle/learnGitBranching', 'bannedbook/fanqiang', 'powerline/fonts', 'harvesthq/chosen', 'tauri-apps/tauri', 'alebcay/awesome-shell', 'angular/components', 'influxdata/influxdb', 'cockroachdb/cockroach', 'balderdashy/sails', 'airbnb/lottie-ios', 'OAI/OpenAPI-Specification', 'Netflix/Hystrix', 'CMU-Perceptual-Computing-Lab/openpose', 'sindresorhus/awesome-electron', 'nagadomi/waifu2x', 'pure-css/pure', 'heartcombo/devise', 'dokku/dokku', 'encode/django-rest-framework', 'redux-saga/redux-saga', 'kubernetes/minikube', 'curl/curl', 'fouber/blog', 'rust-unofficial/awesome-rust', 'hashicorp/vault', 'yunjey/pytorch-tutorial', 'syl20bnr/spacemacs', 'littlecodersh/ItChat', 'Polymer/polymer', 'wuyouzhuguli/SpringAll', 'cfenollosa/os-tutorial', 'donnemartin/data-science-ipython-notebooks', 'mbeaudru/modern-js-cheatsheet', 'dmlc/xgboost', 'hollischuang/toBeTopJavaer', 'ovity/octotree', 'kahun/awesome-sysadmin', 'Tencent/wepy', 'qiurunze123/miaosha', 'trailofbits/algo', 'fastai/fastai', 'pjreddie/darknet', 'facebook/flow', 'reduxjs/react-redux', 'explosion/spaCy', 'dimsemenov/PhotoSwipe', 'jgraph/drawio-desktop', 'balena-io/etcher', 'pmndrs/react-spring', 'go-kit/kit', 'github/hub', 'kataras/iris', 'tj/commander.js', 'ramda/ramda', 'immerjs/immer', 'matteocrippa/awesome-swift', 'emscripten-core/emscripten', 'signalapp/Signal-Android', 'guzzle/guzzle', 'jesseduffield/lazygit', 'alibaba/easyexcel', 'ccxt/ccxt', 'byoungd/English-level-up-tips-for-Chinese', 'lukasz-madon/awesome-remote-job', 'vuejs/devtools', 'SwiftyJSON/SwiftyJSON', 'android/architecture-components-samples', 'bevacqua/dragula', 'facebook/draft-js', 'google/iosched', 'inconshreveable/ngrok', 'seata/seata', 'jamiebuilds/the-super-tiny-compiler', 'firstcontributions/first-contributions', 'googlehosts/hosts', 'facebook/rocksdb', 'swagger-api/swagger-ui', 'Wox-launcher/Wox', 'vapor/vapor', 'feathericons/feather', 'rollup/rollup', 'matterport/Mask_RCNN', 'romkatv/powerlevel10k', 'alibaba/canal', 'fastify/fastify', 'topjohnwu/Magisk', 'sampotts/plyr', 'mongodb/mongo', 'dromara/hutool', 'pugjs/pug', 'veggiemonk/awesome-docker', 'Meituan-Dianping/mpvue', 'openfaas/faas', 'HeroTransitions/Hero', 'ColorlibHQ/gentelella', 'mbadolato/iTerm2-Color-Schemes', 'SwiftGGTeam/the-swift-programming-language-in-chinese', 'wsargent/docker-cheat-sheet', 'kilimchoi/engineering-blogs', 'helm/helm', 'nsqio/nsq', 'stedolan/jq', 'komeiji-satori/Dress', 'eriklindernoren/ML-From-Scratch', 'bilibili/flv.js', 'tornadoweb/tornado', 'servo/servo', 'chenglou/react-motion', 'conwnet/github1s', 'alibaba/spring-cloud-alibaba', 'julycoding/The-Art-Of-Programming-By-July', 'google/python-fire', 'google/gson', 'ReactiveCocoa/ReactiveCocoa', 'git-tips/tips', 'nefe/You-Dont-Need-jQuery', 'react-bootstrap/react-bootstrap', 'DesignPatternsPHP/DesignPatternsPHP', 'beurtschipper/Depix', 'FallibleInc/security-guide-for-developers', 'facebookarchive/pop', 'apache/kafka', 'futurice/android-best-practices', 'BradLarson/GPUImage', 'postcss/autoprefixer', 'petkaantonov/bluebird', 'facebook/folly', 'keon/algorithms', 'halo-dev/halo', 'fabricjs/fabric.js', 'Reactive-Extensions/RxJS', 'apache/incubator-mxnet', 'wangzheng0822/algo', 'ruanyf/es6tutorial', 'SamyPesse/How-to-Make-a-Computer-Operating-System', 'Fndroid/clash_for_windows_pkg', 'ReactiveX/RxAndroid', 'google-research/google-research', 'railsware/upterm', 'JohnCoates/Aerial', 'alibaba/nacos', 'tipsy/profile-summary-for-github', 'tqdm/tqdm', 'xuxueli/xxl-job', 'portainer/portainer', 'vuejs/vuepress', 'marktext/marktext', 'viatsko/awesome-vscode', 'yeasy/docker_practice', 'Eugeny/tabby', 'datasciencemasters/go', 'jaredhanson/passport', 'ApolloAuto/apollo', 'snowpackjs/snowpack', 'nicolargo/glances', 'eslint/eslint', 'AllThingsSmitty/css-protips', 'elixir-lang/elixir', 'Seldaek/monolog', 'sebastianruder/NLP-progress', 'Dreamacro/clash', 'ClickHouse/ClickHouse', 'segmentio/nightmare', 'dnSpy/dnSpy', 'afollestad/material-dialogs', 'felixrieseberg/windows95', 'highlightjs/highlight.js', 'uglide/RedisDesktopManager', 'parse-community/parse-server', 'libgdx/libgdx', 'onevcat/Kingfisher', 'sharkdp/fd', 'MustangYM/WeChatExtension-ForMac', 'xi-editor/xi-editor', 'microsoft/ML-For-Beginners', 'zhaoolee/ChromeAppHeroes', 'vercel/pkg', 'rwaldron/idiomatic.js', 'StevenBlack/hosts', 'sirupsen/logrus', 'dotnet-architecture/eShopOnContainers', 'ftlabs/fastclick', 'judasn/IntelliJ-IDEA-Tutorial', 'gfwlist/gfwlist', 'starship/starship', 'iamadamdev/bypass-paywalls-chrome', 'davideuler/architecture.of.internet-product', 'Prinzhorn/skrollr', 'docsifyjs/docsify', 'google/web-starter-kit', 'Homebrew/homebrew-cask', 'zsh-users/zsh-autosuggestions', 'js-cookie/js-cookie', 'tobiasahlin/SpinKit', 'rust-lang/rustlings', 'notable/notable', 'benweet/stackedit', 'ruby/ruby', 'homebridge/homebridge', 'TeamStuQ/skill-map', 'dhg/Skeleton', 'ehang-io/nps', 'drduh/macOS-Security-and-Privacy-Guide', 'alpinejs/alpine', 'supabase/supabase', 'coder2gwy/coder2gwy', 'viraptor/reverse-interview', 'OWASP/CheatSheetSeries', 'trekhleb/homemade-machine-learning', 'jesseduffield/lazydocker', 'Awesome-HarmonyOS/HarmonyOS', 'google/ExoPlayer', 'dwmkerr/hacker-laws', 'tsenart/vegeta', 'ruanyf/jstraining', 'osquery/osquery', 'leereilly/games', 'numpy/numpy', 'nikitavoloboev/my-mac-os', 'reduxjs/reselect', 'bcit-ci/CodeIgniter', 'square/picasso', 'meilisearch/MeiliSearch', 'libuv/libuv', 'mozilla/DeepSpeech', 'ruanyf/weekly', 'jcjohnson/neural-style', 'datawhalechina/pumpkin-book', 'SnapKit/Masonry', 'graphql/graphql-js', 'popperjs/popper-core', 'facebookresearch/detectron2', 'didi/DoraemonKit', 'Baseflow/PhotoView', 'dotnet/corefx', 'envoyproxy/envoy', 'celery/celery', 'sebastianbergmann/phpunit', 'PKUanonym/REKCARC-TSC-UHT', 'SnapKit/SnapKit', 'jenkinsci/jenkins', 'DrKLO/Telegram', 'microsoft/cascadia-code', 'michalsnik/aos', 'k3s-io/k3s', 'winstonjs/winston', 'coolsnowwolf/lede', 'alibaba/weex', 'apache/skywalking', 'nostalgic-css/NES.css', 'rancher/rancher', 'ChristosChristofidis/awesome-deep-learning', 'Kong/insomnia', 'zyedidia/micro', 'wenyan-lang/wenyan', 'sideway/joi', 'eligrey/FileSaver.js', 'PostgREST/postgrest', 'n8n-io/n8n', 'microsoft/api-guidelines', 'adobe-fonts/source-code-pro', 'wekan/wekan', 'BoostIO/BoostNote-Legacy', 'nektos/act', 'deezer/spleeter', 'forem/forem', 'ryanhanwu/How-To-Ask-Questions-The-Smart-Way', 'google/eng-practices', 'redisson/redisson', 'fish-shell/fish-shell', 'eggjs/egg', 'npm/npm', 'n0shake/Public-APIs', 'ray-project/ray', 'bazelbuild/bazel', 'alibaba/Sentinel', 'neoclide/coc.nvim', 'remoteintech/remote-jobs', 'DIYgod/RSSHub', 'statelyai/xstate', 'bitcoinbook/bitcoinbook', 'Micropoor/Micro8', 'phoenixframework/phoenix', 'SpaceVim/SpaceVim', 'facebook/flux', 'tmrts/go-patterns', 'coreybutler/nvm-windows', 'Pierian-Data/Complete-Python-3-Bootcamp', 'FelisCatus/SwitchyOmega', 'academic/awesome-datascience', 'microsoft/CNTK', 'nuysoft/Mock', 'apache/flink', 'uikit/uikit', 'dennybritz/reinforcement-learning', 'julianshapiro/velocity', 'locustio/locust', 'PHPMailer/PHPMailer', 'facebook/hhvm', 'chalk/chalk', 'ShareX/ShareX', '1c7/chinese-independent-developer', 'swoole/swoole-src', 'ageron/handson-ml2', 'HelloZeroNet/ZeroNet', 'google/flexbox-layout', 'recharts/recharts', 'magenta/magenta', 'zhiwehu/Python-programming-exercises', 'Awesome-Windows/Awesome', 'go-delve/delve', 'pytorch/examples', 'nosir/cleave.js', 'prisma/prisma1', 'nextcloud/server', 'nostra13/Android-Universal-Image-Loader', 'mxgmn/WaveFunctionCollapse', 'norvig/pytudes', 'jumpserver/jumpserver', 'defunkt/jquery-pjax', 'kelthuzadx/hosts', 'vadimdemedes/ink', 'google/flatbuffers', 'jitsi/jitsi-meet', 'crystal-lang/crystal', 'JacksonTian/fks', 'asim/go-micro', 'apollographql/apollo-client', 'spf13/viper', 'jaywcjlove/linux-command', 'telegramdesktop/tdesktop', 'facebook/fresco', 'less/less.js', 'CarGuo/GSYVideoPlayer', 'reactnativecn/react-native-guide', 'dgraph-io/dgraph', 'MLEveryday/100-Days-Of-ML-Code', 'reduxjs/redux-thunk', 'nothings/stb', 'LingCoder/OnJava8', 'wesbos/JavaScript30', 'dracula/dracula-theme', 'urfave/cli', 'elastic/kibana', 'philc/vimium', 'adam-golab/react-developer-roadmap', 'PaddlePaddle/Paddle', 'jtoy/awesome-tensorflow', 'openssl/openssl', 'ElemeFE/mint-ui', 'framework7io/framework7', 'react-dnd/react-dnd', 'basecamp/trix', 'open-mmlab/mmdetection', 'luong-komorebi/Awesome-Linux-Software', 'hwdsl2/setup-ipsec-vpn', 'python-telegram-bot/python-telegram-bot', 'elunez/eladmin', 'linlinjava/litemall', 'twitter/typeahead.js', 'python-poetry/poetry', 'yuzu-emu/yuzu', 'photoprism/photoprism', 'ibraheemdev/modern-unix', 'kdeldycke/awesome-falsehood', 'rome/tools', 'lutzroeder/netron', 'dotnet/core', 'mybatis/mybatis-3', 'handlebars-lang/handlebars.js', 'vnpy/vnpy', 'sindresorhus/quick-look-plugins', 'nickbutcher/plaid', 'facert/awesome-spider', 'shuzheng/zheng', 'arendst/Tasmota', 'firecracker-microvm/firecracker', 'microsoft/MS-DOS', 'PaddlePaddle/PaddleOCR', 'Tencent/tinker', 'diem/diem', 'qishibo/AnotherRedisDesktopManager', 'hubotio/hubot', 'Kotlin/anko', 'taosdata/TDengine', 'jashkenas/coffeescript', 'valyala/fasthttp', 'shieldfy/API-Security-Checklist', 'SortableJS/Vue.Draggable', 'facebook/relay', 'forezp/SpringCloudLearning', 'jdg/MBProgressHUD', 'mpv-player/mpv', 'dianping/cat', 'oracle/graal', 'preservim/nerdtree']</t>
-  </si>
-  <si>
-    <t>['freeCodeCamp/freeCodeCamp', 'vuejs/vue', 'facebook/react', 'twbs/bootstrap', 'getify/You-Dont-Know-JS', 'flutter/flutter', 'airbnb/javascript', 'electron/electron', 'axios/axios', '30-seconds/30-seconds-of-code', 'justjavac/free-programming-books-zh_CN', 'nodejs/node', 'denoland/deno', 'angular/angular', 'ant-design/ant-design', 'mrdoob/three.js', 'microsoft/TypeScript', 'vercel/next.js', 'mui-org/material-ui', 'goldbergyoni/nodebestpractices', 'PanJiaChen/vue-element-admin', 'storybookjs/storybook', 'webpack/webpack', 'thedaviddias/Front-End-Checklist', 'practical-tutorials/project-based-learning', 'chartjs/Chart.js', 'expressjs/express', 'h5bp/html5-boilerplate', 'gatsbyjs/gatsby', 'ElemeFE/element', 'h5bp/Front-end-Developer-Interview-Questions', 'ionic-team/ionic-framework', 'enaqx/awesome-react', 'leonardomso/33-js-concepts', 'meteor/meteor', 'sindresorhus/awesome-nodejs', 'prettier/prettier', 'nestjs/nest', 'juliangarnier/anime', 'babel/babel', 'strapi/strapi', 'parcel-bundler/parcel', 'Dogfalo/materialize', 'nwjs/nw.js', 'TryGhost/Ghost', 'nuxt/nuxt.js', 'bailicangdu/vue2-elm', 'vercel/hyper', 'FreeCodeCampChina/freecodecamp.cn', 'facebook/jest', 'microsoft/Web-Dev-For-Beginners', 'pixijs/pixijs', 'hexojs/hexo', 'dcloudio/uni-app', 'cypress-io/cypress', 'vuetifyjs/vuetify', 'videojs/video.js', 'yangshun/front-end-interview-handbook', 'hoppscotch/hoppscotch', 'RocketChat/Rocket.Chat', 'photonstorm/phaser', 'jondot/awesome-react-native', 'NervJS/taro', 'xitu/gold-miner', 'formium/formik', 'dkhamsing/open-source-ios-apps', 'brillout/awesome-react-components', 'react-boilerplate/react-boilerplate', 'microsoft/playwright', 'SheetJS/sheetjs', 'evanw/esbuild', 'date-fns/date-fns', 'vuejs/vuex', 'facebook/docusaurus', 'standard/standard', 'elsewhencode/project-guidelines', 'laurent22/joplin', 'Modernizr/Modernizr', 'naptha/tesseract.js', 'nylas/nylas-mail', 'webtorrent/webtorrent', 'transloadit/uppy', 'mobxjs/mobx', 'Advanced-Frontend/Daily-Interview-Question', 'sentsin/layui', 'iview/iview', 'SDWebImage/SDWebImage', 'denysdovhan/wtfjs', 'react-hook-form/react-hook-form', 'akveo/ngx-admin', 'google/zx', 'bvaughn/react-virtualized', 'ianstormtaylor/slate', 'emberjs/ember.js', 'LeCoupa/awesome-cheatsheets', 't4t5/sweetalert', 'doczjs/docz', 'SeleniumHQ/selenium', 'mdbootstrap/mdb-ui-kit', 'react-native-elements/react-native-elements', 'Binaryify/NeteaseCloudMusicApi', 'MostlyAdequate/mostly-adequate-guide', 'markerikson/react-redux-links', 'kriasoft/react-starter-kit', 'ReactiveX/RxSwift', 'mattermost/mattermost-server', 'mochajs/mocha', 'labstack/echo', 'usablica/intro.js', 'chakra-ui/chakra-ui', 'NativeScript/NativeScript', 'paularmstrong/normalizr', 'lovell/sharp', 'react-navigation/react-navigation', 'jlmakes/scrollreveal', 'ipfs/ipfs', 'enzymejs/enzyme', 'localForage/localForage', 'quasarframework/quasar', 'avajs/ava', 'necolas/react-native-web', 'goldfire/howler.js', 'vercel/swr', 'jhipster/generator-jhipster', 'jorgebucaran/hyperapp', 'verekia/js-stack-from-scratch', 'Popmotion/popmotion', 'vuejs/vue-router', 'v8/v8', 'electron-react-boilerplate/electron-react-boilerplate', 'validatorjs/validator.js', 'youzan/vant', 'palantir/blueprint', 'marmelab/react-admin', 'airyland/vux', 'qianguyihao/Web', 'InterviewMap/CS-Interview-Knowledge-Map', 'mojs/mojs', 'websockets/ws', 'yewstack/yew', 'angular/material', 'mysqljs/mysql', 'svg/svgo', 'alibaba/ice', 'sudheerj/reactjs-interview-questions', 'codex-team/editor.js', 'jsdom/jsdom', 'alsotang/node-lessons', 'typicode/lowdb', 'jamiebuilds/react-loadable', 'processing/p5.js', 'statsd/statsd', 'pubkey/rxdb', 'dropzone/dropzone', 'iview/iview-admin']</t>
-  </si>
-  <si>
-    <t>['apache/superset', 'pingcap/tidb', 'metabase/metabase', 'typeorm/typeorm', 'sequelize/sequelize', 'dbeaver/dbeaver', 'sqlmapproject/sqlmap', 'getredash/redash', 'nocodb/nocodb', 'prisma/prisma']</t>
+    <t>['macrozheng/mall', 'ityouknow/spring-boot-examples', 'jeecgboot/jeecg-boot', 'xkcoding/spring-boot-demo', 'wuyouzhuguli/SpringAll', 'pmndrs/react-spring', 'alibaba/spring-cloud-alibaba', 'shuzheng/zheng', 'forezp/SpringCloudLearning']</t>
+  </si>
+  <si>
+    <t>['cypress-io/cypress', 'hoppscotch/hoppscotch', 'mochajs/mocha', 'enzymejs/enzyme', 'avajs/ava']</t>
+  </si>
+  <si>
+    <t>[('javascript', 102), ('react', 95), ('web', 76), ('vue', 53), ('nodejs', 25), ('ui', 22), ('material', 22), ('typescript', 20), ('css', 16), ('angular', 14), ('html', 14), ('frontend', 12), ('hacktoberfest', 12), ('framework', 11), ('ios', 11)]</t>
+  </si>
+  <si>
+    <t>[('python', 94), ('javascript', 74), ('awesome', 70), ('hacktoberfest', 62), ('data', 54), ('machinelearning', 52), ('sql', 49), ('deep-learning', 44), ('api', 44), ('go', 44), ('android', 44), ('nodejs', 40), ('java', 38), ('web', 38), ('css', 35)]</t>
+  </si>
+  <si>
+    <t>[('docker', 18), ('awesome', 2), ('moby', 2), ('list', 1), ('tools', 1), ('container', 1), ('monitoring', 1), ('security', 1), ('ui', 1), ('portainer', 1), ('hacktoberfest', 1)]</t>
   </si>
   <si>
     <t>[('interview', 48), ('algorithm', 23), ('leetcode', 9), ('programming', 6), ('system', 6), ('javascript', 6), ('data', 5), ('awesome', 5), ('python', 4), ('web', 4), ('sort', 4), ('computer-science', 3), ('design', 3), ('development', 2), ('hacktoberfest', 2)]</t>
   </si>
   <si>
-    <t>[('python', 91), ('awesome', 70), ('spring', 60), ('hacktoberfest', 58), ('machinelearning', 52), ('deep-learning', 44), ('android', 44), ('go', 43), ('java', 42), ('data', 40), ('api', 39), ('web', 39), ('docker', 39), ('javascript', 35), ('swift', 32)]</t>
-  </si>
-  <si>
-    <t>[('javascript', 139), ('react', 97), ('web', 76), ('vue', 55), ('nodejs', 48), ('test', 34), ('html', 30), ('css', 25), ('ui', 24), ('material', 23), ('typescript', 22), ('hacktoberfest', 17), ('frontend', 14), ('angular', 14), ('framework', 11)]</t>
-  </si>
-  <si>
-    <t>[('sql', 36), ('data', 15), ('business', 5), ('vision', 4), ('javascript', 4), ('mariadb', 4), ('python', 3), ('bi', 3), ('analytics', 3), ('orm', 3), ('react', 2), ('apache', 2), ('distributed', 2), ('postgres', 2), ('dashboard', 2)]</t>
+    <t>[('spring', 45), ('java', 5), ('mybatis', 4), ('docker', 3), ('shiro', 3), ('alibaba', 3), ('distributed', 3), ('redis', 2), ('mongodb', 2), ('rabbitmq', 2), ('swagger', 2), ('fastdfs', 2), ('vue', 2), ('bootstrap', 2), ('microservice', 2)]</t>
+  </si>
+  <si>
+    <t>[('test', 26), ('nodejs', 4), ('rest', 3), ('api', 2), ('vue', 2), ('javascript', 2), ('mocha', 2), ('tdd', 2), ('react', 2), ('ava', 2), ('cypress', 1), ('graphql', 1), ('spa', 1), ('tools', 1), ('pwa', 1)]</t>
   </si>
 </sst>
 </file>
@@ -407,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,10 +447,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,10 +461,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>822</v>
+        <v>857</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,10 +475,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -477,10 +489,38 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
